--- a/Utils/excel/omkar.xlsx
+++ b/Utils/excel/omkar.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZRM" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2520,12 +2521,10 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>19300</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="C21" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -2565,7 +2564,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -2595,6 +2594,102 @@
       </c>
       <c r="L22" t="n">
         <v>158.8891756</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19650</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>26.738</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-20.088</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-20088</v>
+      </c>
+      <c r="L23" t="n">
+        <v>56.08973700000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>154.90833333</v>
+      </c>
+      <c r="H24" t="n">
+        <v>140.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-13.99833333000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>360</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-5039.399998800003</v>
+      </c>
+      <c r="L24" t="n">
+        <v>110.566902567964</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3327,7 +3422,7 @@
       <c r="D13" t="n">
         <v>19300</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -3363,6 +3458,160 @@
       </c>
       <c r="O13" t="n">
         <v>262.3975731000301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nifty Straddle</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>19400</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>09:21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>130.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>115.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="M14" t="n">
+        <v>350</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4742.500000000002</v>
+      </c>
+      <c r="O14" t="n">
+        <v>240.869822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Entry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Exit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Entry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Exit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19399.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19410.91111111</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.711111110000637</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1669.999999500287</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1594.393293479926</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/excel/omkar.xlsx
+++ b/Utils/excel/omkar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09A864-AE11-9648-A058-BC3A0D9C6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9623A2-16CA-A94A-B458-7F40B91A3D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="137">
   <si>
     <t>Tr.No</t>
   </si>
@@ -297,18 +297,78 @@
     <t>15:05</t>
   </si>
   <si>
+    <t>11:25:00</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>11:25</t>
   </si>
   <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>44100</t>
+    <t>14:24</t>
+  </si>
+  <si>
+    <t>11:26</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>15:06</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>10:33</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>19350</t>
+  </si>
+  <si>
+    <t>10:44</t>
   </si>
   <si>
     <t>19600</t>
   </si>
   <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
     <t>Trade Type</t>
   </si>
   <si>
@@ -348,7 +408,10 @@
     <t>11:36</t>
   </si>
   <si>
-    <t>Trade_Type</t>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>10:40</t>
   </si>
   <si>
     <t>Future_Entry</t>
@@ -367,6 +430,12 @@
   </si>
   <si>
     <t>BULLISH</t>
+  </si>
+  <si>
+    <t>BEARISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s</t>
   </si>
 </sst>
 </file>
@@ -377,13 +446,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -427,13 +501,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1633,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
+      <selection activeCell="I51" sqref="I51:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,6 +2511,12 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>44000</v>
+      </c>
       <c r="D22" s="2">
         <v>45159</v>
       </c>
@@ -2545,10 +2628,10 @@
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>44100</v>
+      </c>
+      <c r="D25" s="2">
         <v>45161</v>
       </c>
       <c r="E25" t="s">
@@ -2583,10 +2666,10 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>19600</v>
+      </c>
+      <c r="D26" s="2">
         <v>45161</v>
       </c>
       <c r="E26" t="s">
@@ -2612,6 +2695,538 @@
       </c>
       <c r="L26">
         <v>331.02826240000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>19500</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27">
+        <v>26.777777780000001</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>-22.777777780000001</v>
+      </c>
+      <c r="J27">
+        <v>900</v>
+      </c>
+      <c r="K27">
+        <v>-20500.000002000001</v>
+      </c>
+      <c r="L27">
+        <v>52.301248000059992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>44600</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28">
+        <v>66.8</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>-64.8</v>
+      </c>
+      <c r="J28">
+        <v>255</v>
+      </c>
+      <c r="K28">
+        <v>-16524</v>
+      </c>
+      <c r="L28">
+        <v>48.331271800000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>19250</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29">
+        <v>100.85</v>
+      </c>
+      <c r="H29">
+        <v>114.01</v>
+      </c>
+      <c r="I29">
+        <v>13.160000000000011</v>
+      </c>
+      <c r="J29">
+        <v>1600</v>
+      </c>
+      <c r="K29">
+        <v>21056.000000000018</v>
+      </c>
+      <c r="L29">
+        <v>300.21149087999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>44100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30">
+        <v>292.40625</v>
+      </c>
+      <c r="H30">
+        <v>253.16</v>
+      </c>
+      <c r="I30">
+        <v>-39.246250000000003</v>
+      </c>
+      <c r="J30">
+        <v>600</v>
+      </c>
+      <c r="K30">
+        <v>-23547.75</v>
+      </c>
+      <c r="L30">
+        <v>237.19618978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>19300</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>89.8</v>
+      </c>
+      <c r="H31">
+        <v>81</v>
+      </c>
+      <c r="I31">
+        <v>-8.7999999999999972</v>
+      </c>
+      <c r="J31">
+        <v>1300</v>
+      </c>
+      <c r="K31">
+        <v>-11440</v>
+      </c>
+      <c r="L31">
+        <v>178.76595399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>44300</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32">
+        <v>293.84354839000002</v>
+      </c>
+      <c r="H32">
+        <v>346.01</v>
+      </c>
+      <c r="I32">
+        <v>52.166451609999967</v>
+      </c>
+      <c r="J32">
+        <v>465</v>
+      </c>
+      <c r="K32">
+        <v>24257.39999864998</v>
+      </c>
+      <c r="L32">
+        <v>277.29772293535302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>44500</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33">
+        <v>189.68913043000001</v>
+      </c>
+      <c r="H33">
+        <v>152.52608695999999</v>
+      </c>
+      <c r="I33">
+        <v>-37.163043470000019</v>
+      </c>
+      <c r="J33">
+        <v>345</v>
+      </c>
+      <c r="K33">
+        <v>-12821.249997150009</v>
+      </c>
+      <c r="L33">
+        <v>113.1604983714099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>19800</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>-20.8</v>
+      </c>
+      <c r="J34">
+        <v>1080</v>
+      </c>
+      <c r="K34">
+        <v>-22464</v>
+      </c>
+      <c r="L34">
+        <v>68.062036000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>19450</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>-22.95</v>
+      </c>
+      <c r="J35">
+        <v>950</v>
+      </c>
+      <c r="K35">
+        <v>-21802.5</v>
+      </c>
+      <c r="L35">
+        <v>65.612139999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>44600</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <v>118.6</v>
+      </c>
+      <c r="H36">
+        <v>284.13</v>
+      </c>
+      <c r="I36">
+        <v>165.53</v>
+      </c>
+      <c r="J36">
+        <v>285</v>
+      </c>
+      <c r="K36">
+        <v>47176.05</v>
+      </c>
+      <c r="L36">
+        <v>205.66676116900001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>44100</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="J37">
+        <v>255</v>
+      </c>
+      <c r="K37">
+        <v>-17238</v>
+      </c>
+      <c r="L37">
+        <v>51.212674900000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>19300</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38">
+        <v>31.13888889</v>
+      </c>
+      <c r="H38">
+        <v>7.1</v>
+      </c>
+      <c r="I38">
+        <v>-24.038888889999999</v>
+      </c>
+      <c r="J38">
+        <v>900</v>
+      </c>
+      <c r="K38">
+        <v>-21635.000001</v>
+      </c>
+      <c r="L38">
+        <v>55.812140200030001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39">
+        <v>92.995161289999999</v>
+      </c>
+      <c r="H39">
+        <v>79</v>
+      </c>
+      <c r="I39">
+        <v>-13.99516129</v>
+      </c>
+      <c r="J39">
+        <v>1550</v>
+      </c>
+      <c r="K39">
+        <v>-21692.4999995</v>
+      </c>
+      <c r="L39">
+        <v>200.44551599998499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40">
+        <v>86</v>
+      </c>
+      <c r="H40">
+        <v>72</v>
+      </c>
+      <c r="I40">
+        <v>-14</v>
+      </c>
+      <c r="J40">
+        <v>1560</v>
+      </c>
+      <c r="K40">
+        <v>-21840</v>
+      </c>
+      <c r="L40">
+        <v>187.82613760000001</v>
       </c>
     </row>
   </sheetData>
@@ -2621,11 +3236,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2637,7 +3250,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
@@ -2658,10 +3271,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>44</v>
@@ -2678,13 +3291,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -2693,10 +3306,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>205.95</v>
@@ -2716,13 +3329,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -2731,10 +3344,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H3">
         <v>170.61</v>
@@ -2754,13 +3367,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -2769,10 +3382,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H4">
         <v>154.31</v>
@@ -2801,13 +3414,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -2816,10 +3429,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H5">
         <v>125.68</v>
@@ -2848,13 +3461,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -2863,10 +3476,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H6">
         <v>105.4875</v>
@@ -2895,13 +3508,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -2910,10 +3523,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H7">
         <v>191.61</v>
@@ -2942,13 +3555,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -2957,10 +3570,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>169.99</v>
@@ -2989,13 +3602,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3004,10 +3617,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H9">
         <v>121.46250000000001</v>
@@ -3036,13 +3649,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>19300</v>
@@ -3051,10 +3664,10 @@
         <v>45154</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H10">
         <v>121.46250000000001</v>
@@ -3083,13 +3696,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>19400</v>
@@ -3098,10 +3711,10 @@
         <v>45155</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H11">
         <v>91.199999999999989</v>
@@ -3130,13 +3743,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3145,10 +3758,10 @@
         <v>45156</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H12">
         <v>189.6</v>
@@ -3177,13 +3790,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <v>19300</v>
@@ -3192,10 +3805,10 @@
         <v>45159</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H13">
         <v>165.00714285999999</v>
@@ -3224,13 +3837,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3239,10 +3852,10 @@
         <v>45160</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H14">
         <v>130.65</v>
@@ -3271,25 +3884,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D15">
         <v>19400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>45161</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H15">
         <v>95.35</v>
@@ -3314,6 +3927,288 @@
       </c>
       <c r="O15">
         <v>244.76290441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16">
+        <v>19500</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <v>82.05</v>
+      </c>
+      <c r="I16">
+        <v>104.7</v>
+      </c>
+      <c r="J16">
+        <v>1.95</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+      <c r="L16">
+        <v>-24.29999999999999</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>-2429.9999999999991</v>
+      </c>
+      <c r="O16">
+        <v>204.65314000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>19300</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17">
+        <v>197.9</v>
+      </c>
+      <c r="I17">
+        <v>180.55</v>
+      </c>
+      <c r="J17">
+        <v>11.15</v>
+      </c>
+      <c r="K17">
+        <v>8.85</v>
+      </c>
+      <c r="L17">
+        <v>15.04999999999999</v>
+      </c>
+      <c r="M17">
+        <v>450</v>
+      </c>
+      <c r="N17">
+        <v>6772.4999999999973</v>
+      </c>
+      <c r="O17">
+        <v>295.27719639999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <v>175.95</v>
+      </c>
+      <c r="I18">
+        <v>145.86666667</v>
+      </c>
+      <c r="J18">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="K18">
+        <v>4.75</v>
+      </c>
+      <c r="L18">
+        <v>27.033333329999991</v>
+      </c>
+      <c r="M18">
+        <v>450</v>
+      </c>
+      <c r="N18">
+        <v>12164.99999849999</v>
+      </c>
+      <c r="O18">
+        <v>273.71026495182417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19">
+        <v>19400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>93.1</v>
+      </c>
+      <c r="I19">
+        <v>87.539999999999992</v>
+      </c>
+      <c r="J19">
+        <v>2.75</v>
+      </c>
+      <c r="K19">
+        <v>1.65</v>
+      </c>
+      <c r="L19">
+        <v>4.4600000000000026</v>
+      </c>
+      <c r="M19">
+        <v>450</v>
+      </c>
+      <c r="N19">
+        <v>2007.0000000000009</v>
+      </c>
+      <c r="O19">
+        <v>238.90596739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>19400</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20">
+        <v>81.399999999999991</v>
+      </c>
+      <c r="I20">
+        <v>111.48</v>
+      </c>
+      <c r="J20">
+        <v>1.4</v>
+      </c>
+      <c r="K20">
+        <v>1.8</v>
+      </c>
+      <c r="L20">
+        <v>-29.68000000000001</v>
+      </c>
+      <c r="M20">
+        <v>450</v>
+      </c>
+      <c r="N20">
+        <v>-13356.000000000009</v>
+      </c>
+      <c r="O20">
+        <v>269.05879168000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>19300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <v>193.52222222</v>
+      </c>
+      <c r="I21">
+        <v>226.33</v>
+      </c>
+      <c r="J21">
+        <v>9.85</v>
+      </c>
+      <c r="K21">
+        <v>8.1499999999999986</v>
+      </c>
+      <c r="L21">
+        <v>-34.507777779999977</v>
+      </c>
+      <c r="M21">
+        <v>450</v>
+      </c>
+      <c r="N21">
+        <v>-15528.500000999989</v>
+      </c>
+      <c r="O21">
+        <v>338.32634888121999</v>
       </c>
     </row>
   </sheetData>
@@ -3323,35 +4218,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>107</v>
+      <c r="A1" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -3362,60 +4255,118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C2">
-        <v>19399.599999999999</v>
+        <v>19320</v>
       </c>
       <c r="D2">
-        <v>19410.911111109999</v>
+        <v>19341.01363636</v>
       </c>
       <c r="E2">
-        <v>27.5</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="F2">
-        <v>19.899999999999999</v>
+        <v>13.22</v>
       </c>
       <c r="G2">
-        <v>3.7111111100006369</v>
+        <v>14.08363635999951</v>
       </c>
       <c r="H2">
-        <v>1669.999999500287</v>
+        <v>7745.999997999731</v>
       </c>
       <c r="I2">
-        <v>1594.3932934799259</v>
+        <v>1885.5392782147051</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C3">
-        <v>19395.5</v>
+        <v>19338.99545455</v>
       </c>
       <c r="D3">
-        <v>19389.938888889999</v>
+        <v>19405.87</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>13.85</v>
       </c>
       <c r="F3">
-        <v>12.35</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>-9.2111111100006386</v>
+        <v>57.524545449998548</v>
       </c>
       <c r="H3">
-        <v>-4144.9999995002872</v>
+        <v>31638.499997499199</v>
       </c>
       <c r="I3">
-        <v>1588.7136820550741</v>
+        <v>1885.0743069330499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>550</v>
+      </c>
+      <c r="C4">
+        <v>19334.71363636</v>
+      </c>
+      <c r="D4">
+        <v>19356.8</v>
+      </c>
+      <c r="E4">
+        <v>6.4</v>
+      </c>
+      <c r="F4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>17.986363639999031</v>
+      </c>
+      <c r="H4">
+        <v>9892.5000019994695</v>
+      </c>
+      <c r="I4">
+        <v>1879.4508748199601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5">
+        <v>19421.477272730001</v>
+      </c>
+      <c r="D5">
+        <v>19402.595454549999</v>
+      </c>
+      <c r="E5">
+        <v>85.85</v>
+      </c>
+      <c r="F5">
+        <v>64.554545449999992</v>
+      </c>
+      <c r="G5">
+        <v>-2.4136363699984291</v>
+      </c>
+      <c r="H5">
+        <v>-1327.500003499136</v>
+      </c>
+      <c r="I5">
+        <v>1927.074316392358</v>
       </c>
     </row>
   </sheetData>
